--- a/figures/g/selected.xlsx
+++ b/figures/g/selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{ankle, hip} (distance) - |temporal| mad_max</t>
+          <t>{ankle, hip} (distance) - |temporal| std_min</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.783</v>
+        <v>0.957</v>
       </c>
       <c r="D2" t="n">
         <v>0.001</v>
@@ -468,98 +468,498 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_0.5_to_1</t>
+          <t>{ankle, hip} (distance) {diff} - |spectral| rel_pwr_4_to_6_min</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{left_elbow, left_shoulder, middle_shoulder} (angle) {diff} - |spectral| rel_pwr_0.5_to_1</t>
+          <t>{ankle, hip} (distance) {diff} - |temporal| std_min</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{left_shoulder, right_shoulder} (y_displacement) - |temporal| root_mean_square</t>
+          <t>{elbow, shoulder, hip} (angle) - |spectral| rel_pwr_2_to_4_min</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0.826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{nose, middle_shoulder, left_shoulder} (angle) - |spectral| rel_pwr_2_to_4</t>
+          <t>{elbow, shoulder, hip} (angle) - |spectral| rel_pwr_6_to_128_min</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0.913</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{right_elbow, right_shoulder, middle_shoulder} (angle) {diff} - |spectral| entropy</t>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |spectral| rel_pwr_0.5_to_1_max</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{wrist, shoulder} (distance) - |temporal| mad_max.1</t>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |spectral| rel_pwr_4_to_6_max</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |spectral| rel_pwr_4_to_6_min</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |temporal| median_max</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_0.5_to_1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_1_to_2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (x_displacement) {diff} - |spectral| rel_pwr_1_to_2</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (y_displacement) - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (y_displacement) - |spectral| rel_pwr_6_to_128</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{left_hip, right_hip} (y_displacement) - |spectral| half_pwr_freq</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>{left_hip, right_hip} (y_displacement) - |temporal| median</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>{left_hip, right_hip} (y_displacement) {diff} - |spectral| rel_pwr_0.5_to_1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{left_hip, right_hip} (y_displacement) {diff} - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{left_knee, right_knee} (x_displacement) - |spectral| entropy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{left_knee, right_knee} (x_displacement) - |spectral| rel_pwr_0.5_to_1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{left_knee, right_knee} (x_displacement) {diff} - |temporal| kurtosis</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{left_knee, right_knee} (x_displacement) {diff} - |temporal| median</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{left_shoulder, right_shoulder} (y_displacement) {diff} - |spectral| rel_pwr_0.5_to_1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{left_shoulder, right_shoulder} (y_displacement) {diff} - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{middle_shoulder, middle_hip} (x_displacement) {diff} - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{nose, middle_shoulder, left_shoulder} (angle) - |spectral| half_pwr_freq</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{nose, middle_shoulder, left_shoulder} (angle) - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{wrist, shoulder} (distance) - |spectral| rel_pwr_0.5_to_1_min</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{wrist, shoulder} (distance) - |spectral| rel_pwr_4_to_6_min</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{wrist, shoulder} (distance) - |spectral| rel_pwr_6_to_128_min</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{wrist, shoulder} (distance) {diff} - |temporal| mean_max</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
